--- a/November'21/20.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/20.11.2021/Daily Sales Info.....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,6 +977,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32214,9 +32217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52448,9 +52451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54449,11 +54452,11 @@
       <c r="D31" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="73">
         <f>E29*20+F29*10+G29*9+H29*9</f>
         <v>47700</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="73">
         <f>E31-(E31*3.75%)</f>
         <v>45911.25</v>
       </c>
